--- a/orcamentos/Casa d´Agronômica pppp_wwwwwwww.xlsx
+++ b/orcamentos/Casa d´Agronômica pppp_wwwwwwww.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB92AC2-57D8-4AB1-97BC-EAE2403512BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB6500E-8814-4220-9DCE-83565F5C1C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>
     <sheet name="paraFilter" sheetId="6" r:id="rId2"/>
     <sheet name="resultado" sheetId="5" r:id="rId3"/>
     <sheet name="cenarios" sheetId="4" r:id="rId4"/>
-    <sheet name="a" sheetId="7" r:id="rId5"/>
+    <sheet name="rrrr" sheetId="8" r:id="rId5"/>
+    <sheet name="nnn" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -100,7 +101,10 @@
     <t>Valor Total</t>
   </si>
   <si>
-    <t>a</t>
+    <t>nnn</t>
+  </si>
+  <si>
+    <t>rrrr</t>
   </si>
 </sst>
 </file>
@@ -520,7 +524,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Planilha4"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -548,14 +552,21 @@
         <v>23</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED13E71D-306C-4E19-8B01-97055768E132}">
-  <sheetPr codeName="Planilha5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A27F7A-F0A7-4A6C-B546-5CED3ED739D6}">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -600,4 +611,53 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED13E71D-306C-4E19-8B01-97055768E132}">
+  <sheetPr codeName="Planilha5"/>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/orcamentos/Casa d´Agronômica pppp_wwwwwwww.xlsx
+++ b/orcamentos/Casa d´Agronômica pppp_wwwwwwww.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB6500E-8814-4220-9DCE-83565F5C1C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A84629-B84D-4839-B3EE-21B4FBB63550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,20 +17,33 @@
     <sheet name="paraFilter" sheetId="6" r:id="rId2"/>
     <sheet name="resultado" sheetId="5" r:id="rId3"/>
     <sheet name="cenarios" sheetId="4" r:id="rId4"/>
-    <sheet name="rrrr" sheetId="8" r:id="rId5"/>
-    <sheet name="nnn" sheetId="7" r:id="rId6"/>
+    <sheet name="Sul" sheetId="10" r:id="rId5"/>
+    <sheet name="Leste" sheetId="9" r:id="rId6"/>
+    <sheet name="Oeste" sheetId="8" r:id="rId7"/>
+    <sheet name="Centro" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -101,16 +114,130 @@
     <t>Valor Total</t>
   </si>
   <si>
-    <t>nnn</t>
-  </si>
-  <si>
-    <t>rrrr</t>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>Leste</t>
+  </si>
+  <si>
+    <t>Oeste</t>
+  </si>
+  <si>
+    <t>Sul</t>
+  </si>
+  <si>
+    <t>AR0212</t>
+  </si>
+  <si>
+    <t>6,55</t>
+  </si>
+  <si>
+    <t>7,55</t>
+  </si>
+  <si>
+    <t>Árvore de arabescos, produzida em estrutura met. e mangueira luminosa</t>
+  </si>
+  <si>
+    <t>Árvore luminosa sextavada com desenho em forma de arabescos, medindo 12m de altura x 6,55m de largura x 7,55m de comprimento, produzida em estrutura de metalon 30mm x 30mm, parede de 2,00mm de espessura, barra chata de 1/2 x 3/16 polegada e 1/2 x 1/8 polegada, toda a estrutura metálica é zincada, com proteção anticorrosiva resistente a exposição às intempéries. Aplicação de mangueira luminosa incandescente cristal, em PVC flexível extrusado, de 13,00mm de diâmetro, com 36 micro lâmpadas por metro na tensão de 220v. A árvore é formada por 6 painéis triangulares de 3 andares cada, quando interligados formam uma base hexagonal autoportante que deve ser fixada ao solo através de parafusos ou estacadas adequados à superfície a ser instalada. Também deve acompanhar cabos de aço para estaiamento da estrutura. A árvore deve acompanhar manual de montagem.</t>
+  </si>
+  <si>
+    <t>Árvore luminosa sextavada com desenho em forma de arabescos, formada por 6 painéis triangulares que quando interligadas formam uma base hexagonal autoportante que deve ser fixada ao solo com materiais adequados, de acordo com asuperfície. Medindo entre: mínimo: 11,95m de altura x 6,50m de largura x 7,50m de comprimento / máximo:  12,05m de altura x 6,60m de largura x 7,60m de comprimento, produzida em estrutura de metalon 30mm x 30mm, parede de 2,00mm de espessura, barra chata de 1/2 x 3/16 polegada e 1/2 x 1/8 polegada, zincada, com proteção anticorrosiva resistente a exposição às intempéries. Contorno da árvore com mangueira luminosa incandescente cristal, em PVC flexível extrusado, de 13,00mm de diâmetro, com 36 micro lâmpadas por metro. Tensão de 220V. Potência da figura: 5184W</t>
+  </si>
+  <si>
+    <t>Venda</t>
+  </si>
+  <si>
+    <t>AR0215L</t>
+  </si>
+  <si>
+    <t>8,2</t>
+  </si>
+  <si>
+    <t>9,5</t>
+  </si>
+  <si>
+    <t>Árvore de arabescos, produzida em estrutura met. e mangueira de LED</t>
+  </si>
+  <si>
+    <t>Árvore luminosa sextavada com desenho em forma de arabescos, medindo aproximadamente 15,00m de altura x 8,20m de largura x 9,50m de comprimento, produzida em estrutura de metalon 30mm x 30mm, parede de 2,00mm de espessura, barra chata de 1/2 x 3/16 polegada e 1/2 x 1/8 polegada, toda a estrutura metálica é zincada, com proteção anticorrosiva resistente a exposição às intempéries. Aplicação de mangueira luminosa de LED branco, em PVC flexível extrusado, de 13,00mm de diâmetro, 02 fios, com 36 LEDs por metro na tensão de 220v, dispostos na horizontal vista com a mangueira na horizontal que permite a ampla iluminação independente de posição da mangueira nas peças. A árvore é formada por 6 painéis triangulares de 4 andares cada, quando interligados formam uma base hexagonal autoportante que deve ser fixada ao solo através de parafusos ou estacadas adequados à superfície a ser instalada. Também deve acompanhar cabos de aço para estaiamento da estrutura. A árvore deve acompanhar manual de montagem.</t>
+  </si>
+  <si>
+    <t>Árvore luminosa sextavada com desenho em forma de arabescos, formada por 6 painéis triangulares que quando interligadas formam uma base hexagonal autoportante que deve ser fixada ao solo com materiais adequados, de acordo com asuperfície. Medindo entre: mínimo: 14,95m de altura x 8,15m de largura x 9,45m de comprimento / máximo:  15,05m de altura x 8,25m de largura x 9,55m de comprimento, produzida em estrutura de metalon 30mm x 30mm, parede de 2,00mm de espessura, barra chata de 1/2 x 3/16 polegada e 1/2 x 1/8 polegada, zincada, com proteção anticorrosiva resistente a exposição às intempéries. Contorno da figura em mangueira luminosa de LED, 13mm de diâmetro, em PVC flexível, com 36 LEDs por metro. Para o efeito de movimento será aplicado strobos com lâmpadas de xênon de 6w de potência, com flashes de luz brilhante, aproximadamente 50 emissões por minuto, modelo redondo, medindo aproximadamente 8,5cm de base de fixação. Tensão de 220V. Potência da figura: VERIFICAR</t>
+  </si>
+  <si>
+    <t>AFH01</t>
+  </si>
+  <si>
+    <t>Árvore mecatrônica contadora de histórias com movimento da boca e olhos</t>
+  </si>
+  <si>
+    <t>AR0215S</t>
+  </si>
+  <si>
+    <t>Árvore de arabescos, produzida em estrutura met. e mangueira luminosa. Aplicação de Strobos</t>
+  </si>
+  <si>
+    <t>Árvore luminosa sextavada com desenho em forma de arabescos, medindo 15,00m de altura x 8,20m de largura x 9,50m de comprimento, produzida em estrutura de metalon 30mm x 30mm, parede de 2,00mm de espessura, barra chata de 1/2 x 3/16 polegada e 1/2 x 1/8 polegada, toda a estrutura metálica é zincada, com proteção anticorrosiva resistente a exposição às intempéries. Aplicação de mangueira luminosa incandescente cristal, em PVC flexível extrusado, de 13,00mm de diâmetro, com 36 micro lâmpadas por metro na tensão de 220v. Aplicação de 89 lâmpadas de xênon de 6w de potência, com flashes de luz brilhante, aproximadamente 50 emissões por minuto, modelo redondo, medindo aproximadamente 8,5cm de base de fixação. A árvore é formada por 6 painéis triangulares de 4 andares cada, quando interligados formam uma base hexagonal autoportante que deve ser fixada ao solo através de parafusos ou estacadas adequados à superfície a ser instalada. Também deve acompanhar cabos de aço para estaiamento da estrutura. A árvore deve acompanhar manual de montagem.</t>
+  </si>
+  <si>
+    <t>Árvore luminosa sextavada com desenho em forma de arabescos, formada por 6 painéis triangulares que quando interligadas formam uma base hexagonal autoportante que deve ser fixada ao solo com materiais adequados, de acordo com asuperfície. Medindo entre: mínimo: 14,95m de altura x 8,15m de largura x 9,45m de comprimento / máximo:  15,05m de altura x 8,25m de largura x 9,55m de comprimento, produzida em estrutura de metalon 30mm x 30mm, parede de 2,00mm de espessura, barra chata de 1/2 x 3/16 polegada e 1/2 x 1/8 polegada, zincada, com proteção anticorrosiva resistente a exposição às intempéries. Contorno da árvore com mangueira luminosa incandescente cristal, em PVC flexível extrusado, de 13,00mm de diâmetro, com 36 micro lâmpadas por metro. Para o efeito de movimento será aplicado strobos com lâmpadas de xênon de 6w de potência, com flashes de luz brilhante, aproximadamente 50 emissões por minuto, modelo redondo, medindo aproximadamente 8,5cm de base de fixação. Tensão de 220V. Potência da figura: VERIFICAR</t>
+  </si>
+  <si>
+    <t>AR024</t>
+  </si>
+  <si>
+    <t>4,4</t>
+  </si>
+  <si>
+    <t>2,88</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>Árvore luminosa sextavada com desenho em forma de arabescos, medindo 4,40m de altura x 2,88m de largura x 2,50m de comprimento, produzida em estrutura de metalon 30mm x 30mm, parede de 2,00mm de espessura, barra chata de 1/2 x 3/16 polegada e 1/2 x 1/8 polegada, toda a estrutura metálica é zincada, com proteção anticorrosiva resistente a exposição às intempéries. Aplicação de mangueira luminosa incandescente cristal, em PVC flexível extrusado, de 13,00mm de diâmetro, com 36 micro lâmpadas por metro na tensão de 220v. A árvore é formada por 6 painéis triangulares, quando interligados formam uma base hexagonal autoportante que deve ser fixada ao solo através de parafusos ou estacadas adequados à superfície a ser instalada. A árvore deve acompanhar manual de montagem.</t>
+  </si>
+  <si>
+    <t>Árvore luminosa sextavada com desenho em forma de arabescos, formada por 6 painéis triangulares que quando interligadas formam uma base hexagonal autoportante que deve ser fixada ao solo com materiais adequados, de acordo com asuperfície. Medindo entre: mínimo: 4,35m de altura x 2,83m de largura x 2,45m de comprimento / máximo:  4,45m de altura x 2,93m de largura x 2,55m de comprimento, produzida em estrutura de metalon 30mm x 30mm, parede de 2,00mm de espessura, barra chata de 1/2 x 3/16 polegada e 1/2 x 1/8 polegada, zincada, com proteção anticorrosiva resistente a exposição às intempéries. Contorno da árvore com mangueira luminosa incandescente cristal, em PVC flexível extrusado, de 13,00mm de diâmetro, com 36 micro lâmpadas por metro. Tensão de 220V. Potência da figura: 1728W</t>
+  </si>
+  <si>
+    <t>AR0212SM</t>
+  </si>
+  <si>
+    <t>Árvore de arabescos, produzida em estrutura met. e mangueira luminosa. Aplicação de mangueiras de LED com movimentos e Strobos</t>
+  </si>
+  <si>
+    <t>Árvore luminosa sextavada com desenho em forma de arabescos, medindo 12m de altura x 6,55m de largura x 7,55m de comprimento, produzida em estrutura de metalon 30mm x 30mm, parede de 2,00mm de espessura, barra chata de 1/2 x 3/16 polegada e 1/2 x 1/8 polegada, toda a estrutura metálica é zincada, com proteção anticorrosiva resistente a exposição às intempéries. Aplicação de mangueira luminosa incandescente cristal, em PVC flexível extrusado, de 13,00mm de diâmetro, com 36 micro lâmpadas por metro na tensão de 220v. Aplicação de 76 lâmpadas de xênon de 6w de potência, com flashes de luz brilhante, aproximadamente 50 emissões por minuto, modelo redondo, medindo aproximadamente 8,5cm de base de fixação. Adição de 27 peças de mangueira luminosa de LED 24 Volts, medindo aproximadamente 2,00m de comprimento, 13mm de diâmetro, com 128 LEDs por peça, com aparelho sequencial que aciona aproximadamente 26 LEDs em cada canal, proporcionando um efeito semelhante à raios de luz e 33 peças de mangueira luminosa de LED 24 Volts, medindo aproximadamente 3,00m de comprimento, 13mm de diâmetro, com 192 LEDs por peça, com aparelho sequencial que aciona aproximadamente 39 LEDs em cada canal, proporcionando um efeito semelhante à raios de luz. Para ligação e perfeito funcionamento das mangueiras 24V descritas acima, é necessário incluir no fornecimento desta árvore 5 transformadores de 220V corrente alternada para 24V corrente alternada com a potência de 24W cada apropriados para uso externo (ou transformadores de diferentes potências que somem ao menos 120W de potência no total). A árvore é formada por 6 painéis triangulares de 3 andares cada, quando interligados formam uma base hexagonal autoportante que deve ser fixada ao solo através de parafusos ou estacadas adequados à superfície a ser instalada. Também deve acompanhar cabos de aço para estaiamento da estrutura. A árvore deve acompanhar manual de montagem.</t>
+  </si>
+  <si>
+    <t>Árvore luminosa sextavada com desenho em forma de arabescos, formada por 6 painéis triangulares que quando interligadas formam uma base hexagonal autoportante que deve ser fixada ao solo com materiais adequados, de acordo com asuperfície. Medindo entre: mínimo: 11,95m de altura x 6,50m de largura x 7,50m de comprimento / máximo:  12,05m de altura x 6,60m de largura x 7,60m de comprimento, produzida em estrutura de metalon 30mm x 30mm, parede de 2,00mm de espessura, barra chata de 1/2 x 3/16 polegada e 1/2 x 1/8 polegada, zincada, com proteção anticorrosiva resistente a exposição às intempéries. Contorno da árvore com mangueira luminosa incandescente cristal, em PVC flexível extrusado, de 13,00mm de diâmetro, com 36 micro lâmpadas por metro. Para o efeito de movimento será aplicado 153 metros de mangueira de LED na cor branca  13mm de diâmetro, com 64 LEDs por metro. Com aparelho sequencial que aciona aproximadamente 30% dos LEDs de cada mangueira, proporcionando um efeito de movimento. Para o funcionamento correto do movimento, é necessário que as mangueiras de LED snowfall sejam conectadas a 1 transformador de 220v corrente alternada para 24v corrente alternada, com capacidade proporcional a necessidade. Aplicação de strobos com lâmpadas de xênon de 6w de potência, com flashes de luz brilhante, aproximadamente 50 emissões por minuto, modelo redondo, medindo aproximadamente 8,5cm de base de fixação. Tensão de 220V. Potência da figura: 5704W</t>
+  </si>
+  <si>
+    <t>AR024L</t>
+  </si>
+  <si>
+    <t>Árvore luminosa sextavada com desenho em forma de arabescos, medindo 4,40m de altura x 2,88m de largura x 2,50m de comprimento, produzida em estrutura de metalon 30mm x 30mm, parede de 2,00mm de espessura, barra chata de 1/2 x 3/16 polegada e 1/2 x 1/8 polegada, toda a estrutura metálica é zincada, com proteção anticorrosiva resistente a exposição às intempéries. Aplicação de mangueira luminosa de LED branco, em PVC flexível extrusado transparente, de 13,00mm de diâmetro, 02 fios, com 36 LEDs  por metro na tensão de 220v, dispostos na horizontal vista com a mangueira na horizontal que permite a ampla iluminação independente de posição da mangueira nas peças. A árvore é formada por 6 painéis triangulares, quando interligados formam uma base hexagonal autoportante que deve ser fixada ao solo através de parafusos ou estacadas adequados à superfície a ser instalada. A árvore deve acompanhar manual de montagem.</t>
+  </si>
+  <si>
+    <t>Árvore luminosa sextavada com desenho em forma de arabescos, formada por 6 painéis triangulares que quando interligadas formam uma base hexagonal autoportante que deve ser fixada ao solo com materiais adequados, de acordo com asuperfície. Medindo entre: mínimo: 4,35m de altura x 2,83m de largura x 2,45m de comprimento / máximo:  4,45m de altura x 2,93m de largura x 2,55m de comprimento, produzida em estrutura de metalon 30mm x 30mm, parede de 2,00mm de espessura, barra chata de 1/2 x 3/16 polegada e 1/2 x 1/8 polegada, zincada, com proteção anticorrosiva resistente a exposição às intempéries. Contorno da árvore com mangueira luminosa de LED, 13mm de diâmetro, em PVC flexível, com 36 LEDs por metro. Tensão de 220V. Potência da figura: VERIFICAR</t>
+  </si>
+  <si>
+    <t>AR0215</t>
+  </si>
+  <si>
+    <t>Árvore luminosa sextavada com desenho em forma de arabescos, medindo 15,00m de altura x 8,20m de largura x 9,50m de comprimento, produzida em estrutura de metalon 30mm x 30mm, parede de 2,00mm de espessura, barra chata de 1/2 x 3/16 polegada e 1/2 x 1/8 polegada, toda a estrutura metálica é zincada, com proteção anticorrosiva resistente a exposição às intempéries. Aplicação de mangueira luminosa incandescente cristal, em PVC flexível extrusado, de 13,00mm de diâmetro, com 36 micro lâmpadas por metro na tensão de 220v. A árvore é formada por 6 painéis triangulares de 4 andares cada, quando interligados formam uma base hexagonal autoportante que deve ser fixada ao solo através de parafusos ou estacadas adequados à superfície a ser instalada. Também deve acompanhar cabos de aço para estaiamento da estrutura. A árvore deve acompanhar manual de montagem.</t>
+  </si>
+  <si>
+    <t>Árvore luminosa sextavada com desenho em forma de arabescos, formada por 6 painéis triangulares que quando interligadas formam uma base hexagonal autoportante que deve ser fixada ao solo com materiais adequados, de acordo com asuperfície. Medindo entre: mínimo: 14,95m de altura x 8,15m de largura x 9,45m de comprimento / máximo:  15,05m de altura x 8,25m de largura x 9,55m de comprimento, produzida em estrutura de metalon 30mm x 30mm, parede de 2,00mm de espessura, barra chata de 1/2 x 3/16 polegada e 1/2 x 1/8 polegada, zincada, com proteção anticorrosiva resistente a exposição às intempéries. Contorno da árvore com mangueira luminosa incandescente cristal, em PVC flexível extrusado, de 13,00mm de diâmetro, com 36 micro lâmpadas por metro. Tensão de 220V. Potência da figura: 6048W</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0,000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,9 +267,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +552,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -442,7 +570,7 @@
     <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -486,6 +614,32 @@
       </c>
       <c r="F2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45109</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -524,7 +678,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Planilha4"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -557,7 +711,23 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -566,10 +736,526 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A27F7A-F0A7-4A6C-B546-5CED3ED739D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B210267A-8812-45EE-A286-E9417073A25F}">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2">
+        <v>5184</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44377.32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2">
+        <f>C2*H2</f>
+        <v>133131.96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <v>5184</v>
+      </c>
+      <c r="H3" s="2">
+        <v>44377.32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3">
+        <f>C3*H3</f>
+        <v>44377.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2">
+        <v>62470.720000000001</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M6" si="0">C4*H4</f>
+        <v>499765.76000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2">
+        <v>60944</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>243776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="2">
+        <v>60944</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M12" si="1">C7*H7</f>
+        <v>2681536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8">
+        <v>1728</v>
+      </c>
+      <c r="H8" s="2">
+        <v>12026.17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>96209.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>5704</v>
+      </c>
+      <c r="H9" s="2">
+        <v>71128.2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>782410.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="2">
+        <v>13590.72</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>40772.159999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="2">
+        <v>62470.720000000001</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>499765.76000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="2">
+        <v>62470.720000000001</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>62470.720000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="2">
+        <v>62470.720000000001</v>
+      </c>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13">
+        <f>C13*H13</f>
+        <v>562236.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14">
+        <v>6048</v>
+      </c>
+      <c r="H14" s="2">
+        <v>55282.5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14">
+        <f>C14*H14</f>
+        <v>497542.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B02C7AB-6497-44AA-A658-652E71E0238A}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -613,7 +1299,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A27F7A-F0A7-4A6C-B546-5CED3ED739D6}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED13E71D-306C-4E19-8B01-97055768E132}">
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:K1"/>

--- a/orcamentos/Casa d´Agronômica pppp_wwwwwwww.xlsx
+++ b/orcamentos/Casa d´Agronômica pppp_wwwwwwww.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A84629-B84D-4839-B3EE-21B4FBB63550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97878780-1CF9-42B2-9026-80A56890B69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -552,7 +552,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -639,6 +639,32 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45109</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
         <v>33</v>
       </c>
     </row>

--- a/orcamentos/Casa d´Agronômica pppp_wwwwwwww.xlsx
+++ b/orcamentos/Casa d´Agronômica pppp_wwwwwwww.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97878780-1CF9-42B2-9026-80A56890B69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBF259B-E86A-4CD0-AEFD-94F11373A5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -763,9 +763,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B210267A-8812-45EE-A286-E9417073A25F}">
+  <sheetPr codeName="Planilha6"/>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -801,6 +804,12 @@
         <v>21</v>
       </c>
       <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1279,13 +1288,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B02C7AB-6497-44AA-A658-652E71E0238A}">
-  <dimension ref="A1:K1"/>
+  <sheetPr codeName="Planilha7"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1317,6 +1329,12 @@
         <v>21</v>
       </c>
       <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1327,13 +1345,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A27F7A-F0A7-4A6C-B546-5CED3ED739D6}">
-  <dimension ref="A1:K1"/>
+  <sheetPr codeName="Planilha8"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1365,6 +1386,12 @@
         <v>21</v>
       </c>
       <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1376,13 +1403,15 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED13E71D-306C-4E19-8B01-97055768E132}">
   <sheetPr codeName="Planilha5"/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1414,6 +1443,12 @@
         <v>21</v>
       </c>
       <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
         <v>22</v>
       </c>
     </row>
